--- a/target/test-classes/ApiInfo.xlsx
+++ b/target/test-classes/ApiInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanxian/IdeaProjects/oligei/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C259A071-FDC2-914F-9F40-64A80D895EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE18F42-AA08-404F-8584-34F4ECEBD6B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16600" activeTab="1" xr2:uid="{27CA13D7-195C-5947-8234-C42BA9DAC00B}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/target/test-classes/ApiInfo.xlsx
+++ b/target/test-classes/ApiInfo.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanxian/IdeaProjects/oligei/src/test/resources/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275CB7B0-A860-3E48-835F-5EE29D9A7386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{275CB7B0-A860-3E48-835F-5EE29D9A7386}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1100" windowWidth="28240" windowHeight="16600" xr2:uid="{27CA13D7-195C-5947-8234-C42BA9DAC00B}"/>
+    <workbookView windowHeight="16600" windowWidth="28240" xWindow="1320" xr2:uid="{27CA13D7-195C-5947-8234-C42BA9DAC00B}" yWindow="1100"/>
   </bookViews>
   <sheets>
-    <sheet name="apiinfo" sheetId="1" r:id="rId1"/>
-    <sheet name="requestData" sheetId="2" r:id="rId2"/>
+    <sheet name="apiinfo" r:id="rId1" sheetId="1"/>
+    <sheet name="requestData" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>ApiId(接口编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,12 +114,34 @@
   <si>
     <t>RequestData</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 OK</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>[Lorg.apache.http.Header;@5ddcc487</t>
+  </si>
+  <si>
+    <t>[Lorg.apache.http.Header;@73d983ea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -164,35 +186,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -209,10 +231,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -247,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -299,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,21 +432,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -441,7 +463,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -493,14 +515,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1132C38E-5821-DB48-837C-ED907CE1280B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1132C38E-5821-DB48-837C-ED907CE1280B}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -509,13 +531,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" customWidth="true" style="4" width="6.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="7.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="13.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="6.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="33.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="41.33203125" collapsed="true"/>
+    <col min="7" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -539,8 +561,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -557,10 +579,13 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -577,10 +602,13 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
-        <v>3</v>
+      <c r="A4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -596,17 +624,20 @@
       </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DE4244-5304-4C40-8A3B-19CEE1C80BB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DE4244-5304-4C40-8A3B-19CEE1C80BB4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -615,11 +646,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="26.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="37.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="62.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="43.33203125" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -671,6 +702,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>